--- a/school_data.xlsx
+++ b/school_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12575"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2981" uniqueCount="2980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="2982">
   <si>
     <t>学校名称</t>
   </si>
@@ -3014,6 +3014,9 @@
     <t>江苏警官学院</t>
   </si>
   <si>
+    <t>扬州环境资源职业技术学院</t>
+  </si>
+  <si>
     <t>常州纺织服装职业技术学院</t>
   </si>
   <si>
@@ -6551,6 +6554,9 @@
     <t>南京医科大学康达学院</t>
   </si>
   <si>
+    <t>南京中医药大学翰林学院</t>
+  </si>
+  <si>
     <t>苏州城市学院</t>
   </si>
   <si>
@@ -6923,9 +6929,6 @@
     <t>山西卫生健康职业学院</t>
   </si>
   <si>
-    <t>山西省政法管理干部学院</t>
-  </si>
-  <si>
     <t>成都师范学院</t>
   </si>
   <si>
@@ -7196,7 +7199,7 @@
     <t>香港浸会大学</t>
   </si>
   <si>
-    <t>岭南大学</t>
+    <t>香港岭南大学</t>
   </si>
   <si>
     <t>南京城市职业学院</t>
@@ -7838,12 +7841,18 @@
     <t>沈阳理工大学</t>
   </si>
   <si>
+    <t>辽宁税务高等专科学校</t>
+  </si>
+  <si>
     <t>上饶幼儿师范高等专科学校</t>
   </si>
   <si>
     <t>抚州幼儿师范高等专科学校</t>
   </si>
   <si>
+    <t>江苏联合职业技术学院</t>
+  </si>
+  <si>
     <t>扬州中瑞酒店职业学院</t>
   </si>
   <si>
@@ -8795,7 +8804,7 @@
     <t>江西电子信息职业技术学院</t>
   </si>
   <si>
-    <t>信息支援部队工程大学</t>
+    <t>中国人民解放军信息支援部队工程大学</t>
   </si>
   <si>
     <t>鹰潭卫生职业学院</t>
@@ -8900,6 +8909,57 @@
     <t>宁波东方理工大学</t>
   </si>
   <si>
+    <t>厦门大学马来西亚分校</t>
+  </si>
+  <si>
+    <t>四平现代职业学院</t>
+  </si>
+  <si>
+    <t>石家庄农林职业学院</t>
+  </si>
+  <si>
+    <t>六安应用科技职业学院</t>
+  </si>
+  <si>
+    <t>新余职业技术学院</t>
+  </si>
+  <si>
+    <t>赣州起元职业学院</t>
+  </si>
+  <si>
+    <t>赣州远恒佳职业学院</t>
+  </si>
+  <si>
+    <t>日照科技职业学院</t>
+  </si>
+  <si>
+    <t>开封工程职业学院</t>
+  </si>
+  <si>
+    <t>开封智慧健康职业学院</t>
+  </si>
+  <si>
+    <t>周口智慧能源职业学院</t>
+  </si>
+  <si>
+    <t>平顶山科技职业学院</t>
+  </si>
+  <si>
+    <t>邵阳通航职业技术学院</t>
+  </si>
+  <si>
+    <t>重庆农业职业学院</t>
+  </si>
+  <si>
+    <t>昆明航空职业学院</t>
+  </si>
+  <si>
+    <t>日喀则职业技术学院</t>
+  </si>
+  <si>
+    <t>阜康职业技术学院</t>
+  </si>
+  <si>
     <t>海南警察学院</t>
   </si>
   <si>
@@ -8909,64 +8969,10 @@
     <t>新疆理工职业大学</t>
   </si>
   <si>
-    <t>北京师范大学（珠海校区）</t>
-  </si>
-  <si>
-    <t>集美大学海外教育学院</t>
-  </si>
-  <si>
-    <t>北京交通大学（威海校区）</t>
-  </si>
-  <si>
-    <t>四平现代职业学院</t>
-  </si>
-  <si>
-    <t>石家庄农林职业学院</t>
-  </si>
-  <si>
-    <t>六安应用科技职业学院</t>
-  </si>
-  <si>
-    <t>新余职业技术学院</t>
-  </si>
-  <si>
-    <t>赣州起元职业学院</t>
-  </si>
-  <si>
-    <t>赣州远恒佳职业学院</t>
-  </si>
-  <si>
-    <t>日照科技职业学院</t>
-  </si>
-  <si>
-    <t>开封工程职业学院</t>
-  </si>
-  <si>
-    <t>开封智慧健康职业学院</t>
-  </si>
-  <si>
-    <t>周口智慧能源职业学院</t>
-  </si>
-  <si>
-    <t>平顶山科技职业学院</t>
-  </si>
-  <si>
-    <t>邵阳通航职业技术学院</t>
-  </si>
-  <si>
-    <t>重庆农业职业学院</t>
-  </si>
-  <si>
-    <t>昆明航空职业学院</t>
-  </si>
-  <si>
-    <t>日喀则职业技术学院</t>
-  </si>
-  <si>
-    <t>阜康职业技术学院</t>
-  </si>
-  <si>
     <t>海南洛桑旅游大学</t>
+  </si>
+  <si>
+    <t>共青科技职业学院</t>
   </si>
 </sst>
 </file>
@@ -8979,11 +8985,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9441,31 +9453,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9474,120 +9483,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9936,15 +9949,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A2981"/>
+  <dimension ref="A1:A2983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A2957" workbookViewId="0">
+      <selection activeCell="A2965" sqref="A2965"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -22639,12 +22652,12 @@
     </row>
     <row r="2539" spans="1:1">
       <c r="A2539" t="s">
-        <v>661</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="2540" spans="1:1">
       <c r="A2540" t="s">
-        <v>2538</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2541" spans="1:1">
@@ -24850,6 +24863,16 @@
     <row r="2981" spans="1:1">
       <c r="A2981" t="s">
         <v>2979</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:1">
+      <c r="A2982" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:1">
+      <c r="A2983" s="1" t="s">
+        <v>2981</v>
       </c>
     </row>
   </sheetData>

--- a/school_data.xlsx
+++ b/school_data.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12575"/>
+    <workbookView windowWidth="25600" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$A$2959</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2983" uniqueCount="2982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="2958">
   <si>
     <t>学校名称</t>
   </si>
@@ -1682,7 +1685,7 @@
     <t>北京印刷学院</t>
   </si>
   <si>
-    <t>华北电力大学保定校区</t>
+    <t>华北电力大学（保定）</t>
   </si>
   <si>
     <t>北京语言大学</t>
@@ -2162,7 +2165,7 @@
     <t>乐山职业技术学院</t>
   </si>
   <si>
-    <t>华北电力大学</t>
+    <t>华北电力大学（北京）</t>
   </si>
   <si>
     <t>中国地质大学（北京）</t>
@@ -3014,9 +3017,6 @@
     <t>江苏警官学院</t>
   </si>
   <si>
-    <t>扬州环境资源职业技术学院</t>
-  </si>
-  <si>
     <t>常州纺织服装职业技术学院</t>
   </si>
   <si>
@@ -3221,9 +3221,6 @@
     <t>香港城市大学</t>
   </si>
   <si>
-    <t>北京理工大学珠海学院</t>
-  </si>
-  <si>
     <t>山东航空学院</t>
   </si>
   <si>
@@ -3266,7 +3263,7 @@
     <t>联勤保障部队工程大学</t>
   </si>
   <si>
-    <t>陆军军医大学</t>
+    <t>中国人民解放军陆军军医大学</t>
   </si>
   <si>
     <t>中国人民解放军空军工程大学</t>
@@ -3326,9 +3323,6 @@
     <t>百色学院</t>
   </si>
   <si>
-    <t>陆军军事交通学院</t>
-  </si>
-  <si>
     <t>广州应用科技学院</t>
   </si>
   <si>
@@ -3653,9 +3647,6 @@
     <t>安徽第二医学院</t>
   </si>
   <si>
-    <t>南开大学滨海学院</t>
-  </si>
-  <si>
     <t>武昌职业学院</t>
   </si>
   <si>
@@ -3860,15 +3851,9 @@
     <t>黔南民族医学高等专科学校</t>
   </si>
   <si>
-    <t>天津广播影视职业学院</t>
-  </si>
-  <si>
     <t>贵州商学院</t>
   </si>
   <si>
-    <t>安徽涉外经济职业学院</t>
-  </si>
-  <si>
     <t>铜仁职业技术大学</t>
   </si>
   <si>
@@ -4169,9 +4154,6 @@
     <t>盘锦职业技术学院</t>
   </si>
   <si>
-    <t>沈阳航空职业技术学院</t>
-  </si>
-  <si>
     <t>辽宁职业学院</t>
   </si>
   <si>
@@ -4205,9 +4187,6 @@
     <t>沈阳工学院</t>
   </si>
   <si>
-    <t>大连软件职业学院</t>
-  </si>
-  <si>
     <t>大连枫叶职业技术学院</t>
   </si>
   <si>
@@ -4229,9 +4208,6 @@
     <t>兰州工业学院</t>
   </si>
   <si>
-    <t>定西师范高等专科学校</t>
-  </si>
-  <si>
     <t>兰州石化职业技术大学</t>
   </si>
   <si>
@@ -4946,9 +4922,6 @@
     <t>三峡电力职业学院</t>
   </si>
   <si>
-    <t>湖北青年职业学院</t>
-  </si>
-  <si>
     <t>湖北大学知行学院</t>
   </si>
   <si>
@@ -5669,9 +5642,6 @@
     <t>苏州托普信息职业技术学院</t>
   </si>
   <si>
-    <t>应天职业技术学院</t>
-  </si>
-  <si>
     <t>硅湖职业技术学院</t>
   </si>
   <si>
@@ -5879,9 +5849,6 @@
     <t>北京科技大学天津学院</t>
   </si>
   <si>
-    <t>天津师范大学津沽学院</t>
-  </si>
-  <si>
     <t>天津理工大学中环信息学院</t>
   </si>
   <si>
@@ -5966,9 +5933,6 @@
     <t>晋中健康学院</t>
   </si>
   <si>
-    <t>山西财经大学华商学院</t>
-  </si>
-  <si>
     <t>运城职业技术大学</t>
   </si>
   <si>
@@ -6554,9 +6518,6 @@
     <t>南京医科大学康达学院</t>
   </si>
   <si>
-    <t>南京中医药大学翰林学院</t>
-  </si>
-  <si>
     <t>苏州城市学院</t>
   </si>
   <si>
@@ -6929,6 +6890,9 @@
     <t>山西卫生健康职业学院</t>
   </si>
   <si>
+    <t>山西省政法管理干部学院</t>
+  </si>
+  <si>
     <t>成都师范学院</t>
   </si>
   <si>
@@ -7199,7 +7163,7 @@
     <t>香港浸会大学</t>
   </si>
   <si>
-    <t>香港岭南大学</t>
+    <t>岭南大学</t>
   </si>
   <si>
     <t>南京城市职业学院</t>
@@ -7448,9 +7412,6 @@
     <t>澳门城市大学</t>
   </si>
   <si>
-    <t>安徽公安职业学院</t>
-  </si>
-  <si>
     <t>南昌影视传播职业学院</t>
   </si>
   <si>
@@ -7700,16 +7661,13 @@
     <t>西宁城市职业技术学院</t>
   </si>
   <si>
-    <t>江西卫生职业学院</t>
-  </si>
-  <si>
     <t>江西医学高等专科学校</t>
   </si>
   <si>
     <t>赣南卫生健康职业学院</t>
   </si>
   <si>
-    <t>大连理工大学盘锦校区</t>
+    <t>大连理工大学（盘锦校区）</t>
   </si>
   <si>
     <t>无锡职业技术大学</t>
@@ -7841,18 +7799,12 @@
     <t>沈阳理工大学</t>
   </si>
   <si>
-    <t>辽宁税务高等专科学校</t>
-  </si>
-  <si>
     <t>上饶幼儿师范高等专科学校</t>
   </si>
   <si>
     <t>抚州幼儿师范高等专科学校</t>
   </si>
   <si>
-    <t>江苏联合职业技术学院</t>
-  </si>
-  <si>
     <t>扬州中瑞酒店职业学院</t>
   </si>
   <si>
@@ -7913,9 +7865,6 @@
     <t>神木职业技术学院</t>
   </si>
   <si>
-    <t>西安健康工程职业学院</t>
-  </si>
-  <si>
     <t>福建技术师范学院</t>
   </si>
   <si>
@@ -8147,7 +8096,7 @@
     <t>复旦大学上海医学院</t>
   </si>
   <si>
-    <t>合肥工业大学宣城校区</t>
+    <t>合肥工业大学（宣城校区）</t>
   </si>
   <si>
     <t>赤峰应用技术职业学院</t>
@@ -8357,9 +8306,6 @@
     <t>浙江大学医学院</t>
   </si>
   <si>
-    <t>解放军国际关系学院</t>
-  </si>
-  <si>
     <t>中国人民解放军西安通信学院</t>
   </si>
   <si>
@@ -8381,43 +8327,25 @@
     <t>空军航空大学</t>
   </si>
   <si>
-    <t>解放军电子工程学院</t>
-  </si>
-  <si>
     <t>陆军兵种大学</t>
   </si>
   <si>
-    <t>解放军南京陆军指挥学院</t>
-  </si>
-  <si>
-    <t>解放军工程兵学院</t>
+    <t>陆军指挥学院</t>
   </si>
   <si>
     <t>空军指挥学院</t>
   </si>
   <si>
-    <t>解放军空军第一航空学院</t>
-  </si>
-  <si>
     <t>解放军空军西安飞行学院</t>
   </si>
   <si>
-    <t>解放军装甲兵学院</t>
-  </si>
-  <si>
-    <t>解放军装甲兵技术学院</t>
-  </si>
-  <si>
-    <t>海军指挥学院</t>
-  </si>
-  <si>
     <t>广东汕头幼儿师范高等专科学校</t>
   </si>
   <si>
     <t>西南大学西塔学院</t>
   </si>
   <si>
-    <t>重庆医科大学国际医学院</t>
+    <t>重庆医科大学莱斯特大学联合学院</t>
   </si>
   <si>
     <t>广东肇庆航空职业学院</t>
@@ -8804,7 +8732,7 @@
     <t>江西电子信息职业技术学院</t>
   </si>
   <si>
-    <t>中国人民解放军信息支援部队工程大学</t>
+    <t>信息支援部队工程大学</t>
   </si>
   <si>
     <t>鹰潭卫生职业学院</t>
@@ -8909,70 +8837,73 @@
     <t>宁波东方理工大学</t>
   </si>
   <si>
-    <t>厦门大学马来西亚分校</t>
+    <t>海南警察学院</t>
+  </si>
+  <si>
+    <t>西安戏剧学院</t>
+  </si>
+  <si>
+    <t>新疆理工职业大学</t>
+  </si>
+  <si>
+    <t>北京师范大学（珠海校区）</t>
+  </si>
+  <si>
+    <t>集美大学海外教育学院</t>
+  </si>
+  <si>
+    <t>北京交通大学（威海校区）</t>
+  </si>
+  <si>
+    <t>海南洛桑旅游大学</t>
+  </si>
+  <si>
+    <t>赣州起元职业学院</t>
+  </si>
+  <si>
+    <t>重庆农业职业学院</t>
+  </si>
+  <si>
+    <t>阜康职业技术学院</t>
+  </si>
+  <si>
+    <t>开封工程职业学院</t>
+  </si>
+  <si>
+    <t>开封智慧健康职业学院</t>
+  </si>
+  <si>
+    <t>六安应用科技职业学院</t>
+  </si>
+  <si>
+    <t>赣州远恒佳职业学院</t>
+  </si>
+  <si>
+    <t>日照科技职业学院</t>
+  </si>
+  <si>
+    <t>周口智慧能源职业学院</t>
+  </si>
+  <si>
+    <t>平顶山科技职业学院</t>
+  </si>
+  <si>
+    <t>邵阳通航职业技术学院</t>
   </si>
   <si>
     <t>四平现代职业学院</t>
   </si>
   <si>
+    <t>昆明航空职业学院</t>
+  </si>
+  <si>
     <t>石家庄农林职业学院</t>
   </si>
   <si>
-    <t>六安应用科技职业学院</t>
-  </si>
-  <si>
     <t>新余职业技术学院</t>
   </si>
   <si>
-    <t>赣州起元职业学院</t>
-  </si>
-  <si>
-    <t>赣州远恒佳职业学院</t>
-  </si>
-  <si>
-    <t>日照科技职业学院</t>
-  </si>
-  <si>
-    <t>开封工程职业学院</t>
-  </si>
-  <si>
-    <t>开封智慧健康职业学院</t>
-  </si>
-  <si>
-    <t>周口智慧能源职业学院</t>
-  </si>
-  <si>
-    <t>平顶山科技职业学院</t>
-  </si>
-  <si>
-    <t>邵阳通航职业技术学院</t>
-  </si>
-  <si>
-    <t>重庆农业职业学院</t>
-  </si>
-  <si>
-    <t>昆明航空职业学院</t>
-  </si>
-  <si>
     <t>日喀则职业技术学院</t>
-  </si>
-  <si>
-    <t>阜康职业技术学院</t>
-  </si>
-  <si>
-    <t>海南警察学院</t>
-  </si>
-  <si>
-    <t>西安戏剧学院</t>
-  </si>
-  <si>
-    <t>新疆理工职业大学</t>
-  </si>
-  <si>
-    <t>海南洛桑旅游大学</t>
-  </si>
-  <si>
-    <t>共青科技职业学院</t>
   </si>
 </sst>
 </file>
@@ -8985,17 +8916,11 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -9453,28 +9378,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9483,124 +9411,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9948,16 +9872,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A2983"/>
+  <sheetPr/>
+  <dimension ref="A1:A2959"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2957" workbookViewId="0">
-      <selection activeCell="A2965" sqref="A2965"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -22587,77 +22511,77 @@
     </row>
     <row r="2526" spans="1:1">
       <c r="A2526" t="s">
-        <v>2525</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2527" spans="1:1">
       <c r="A2527" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="2528" spans="1:1">
       <c r="A2528" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="2529" spans="1:1">
       <c r="A2529" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="2530" spans="1:1">
       <c r="A2530" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="2531" spans="1:1">
       <c r="A2531" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="2532" spans="1:1">
       <c r="A2532" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="2533" spans="1:1">
       <c r="A2533" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="2534" spans="1:1">
       <c r="A2534" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="2535" spans="1:1">
       <c r="A2535" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="2536" spans="1:1">
       <c r="A2536" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="2537" spans="1:1">
       <c r="A2537" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="2538" spans="1:1">
       <c r="A2538" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="2539" spans="1:1">
       <c r="A2539" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="2540" spans="1:1">
       <c r="A2540" t="s">
-        <v>661</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="2541" spans="1:1">
@@ -24755,128 +24679,11 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="2960" spans="1:1">
-      <c r="A2960" t="s">
-        <v>2958</v>
-      </c>
-    </row>
-    <row r="2961" spans="1:1">
-      <c r="A2961" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="2962" spans="1:1">
-      <c r="A2962" t="s">
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="2963" spans="1:1">
-      <c r="A2963" t="s">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="2964" spans="1:1">
-      <c r="A2964" t="s">
-        <v>2962</v>
-      </c>
-    </row>
-    <row r="2965" spans="1:1">
-      <c r="A2965" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="2966" spans="1:1">
-      <c r="A2966" t="s">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="2967" spans="1:1">
-      <c r="A2967" t="s">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="2968" spans="1:1">
-      <c r="A2968" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="2969" spans="1:1">
-      <c r="A2969" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="2970" spans="1:1">
-      <c r="A2970" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="2971" spans="1:1">
-      <c r="A2971" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="2972" spans="1:1">
-      <c r="A2972" t="s">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="2973" spans="1:1">
-      <c r="A2973" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="2974" spans="1:1">
-      <c r="A2974" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="2975" spans="1:1">
-      <c r="A2975" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="2976" spans="1:1">
-      <c r="A2976" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="2977" spans="1:1">
-      <c r="A2977" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="2978" spans="1:1">
-      <c r="A2978" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="2979" spans="1:1">
-      <c r="A2979" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="2980" spans="1:1">
-      <c r="A2980" t="s">
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="2981" spans="1:1">
-      <c r="A2981" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="2982" spans="1:1">
-      <c r="A2982" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="2983" spans="1:1">
-      <c r="A2983" s="1" t="s">
-        <v>2981</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A2959" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
